--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,53 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\DATN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED14B5A-3ABD-43AB-B6C5-F780144FA505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF16608-1C9B-4E9D-B640-AEAF81C96319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
-    <t>isc09-01</t>
-  </si>
-  <si>
-    <t>isc09-02</t>
-  </si>
-  <si>
-    <t>isc09-03</t>
-  </si>
-  <si>
-    <t>isc09-04</t>
-  </si>
-  <si>
-    <t>isc09-05</t>
-  </si>
-  <si>
-    <t>isc09-06</t>
-  </si>
-  <si>
-    <t>isc09-07</t>
-  </si>
-  <si>
-    <t>isc09-08</t>
-  </si>
-  <si>
-    <t>isc09-09</t>
-  </si>
-  <si>
-    <t>isc09-10</t>
-  </si>
-  <si>
-    <t>isc09-11</t>
-  </si>
-  <si>
     <t>NAM</t>
   </si>
   <si>
@@ -118,40 +93,73 @@
     <t xml:space="preserve">TỐNG KHÁNH </t>
   </si>
   <si>
-    <t>ISC09</t>
-  </si>
-  <si>
-    <t>isc09-01@gmail.com</t>
-  </si>
-  <si>
-    <t>isc09-02@gmail.com</t>
-  </si>
-  <si>
-    <t>isc09-03@gmail.com</t>
-  </si>
-  <si>
-    <t>isc09-04@gmail.com</t>
-  </si>
-  <si>
-    <t>isc09-05@gmail.com</t>
-  </si>
-  <si>
-    <t>isc09-06@gmail.com</t>
-  </si>
-  <si>
-    <t>isc09-07@gmail.com</t>
-  </si>
-  <si>
-    <t>isc09-08@gmail.com</t>
-  </si>
-  <si>
-    <t>isc09-09@gmail.com</t>
-  </si>
-  <si>
-    <t>isc09-10@gmail.com</t>
-  </si>
-  <si>
-    <t>isc09-11@gmail.com</t>
+    <t>ISC07</t>
+  </si>
+  <si>
+    <t>isc07-01</t>
+  </si>
+  <si>
+    <t>isc07-02</t>
+  </si>
+  <si>
+    <t>isc07-03</t>
+  </si>
+  <si>
+    <t>isc07-04</t>
+  </si>
+  <si>
+    <t>isc07-05</t>
+  </si>
+  <si>
+    <t>isc07-06</t>
+  </si>
+  <si>
+    <t>isc07-07</t>
+  </si>
+  <si>
+    <t>isc07-08</t>
+  </si>
+  <si>
+    <t>isc07-09</t>
+  </si>
+  <si>
+    <t>isc07-10</t>
+  </si>
+  <si>
+    <t>isc07-11</t>
+  </si>
+  <si>
+    <t>isc07-01@gmail.com</t>
+  </si>
+  <si>
+    <t>isc07-02@gmail.com</t>
+  </si>
+  <si>
+    <t>isc07-03@gmail.com</t>
+  </si>
+  <si>
+    <t>isc07-04@gmail.com</t>
+  </si>
+  <si>
+    <t>isc07-05@gmail.com</t>
+  </si>
+  <si>
+    <t>isc07-06@gmail.com</t>
+  </si>
+  <si>
+    <t>isc07-07@gmail.com</t>
+  </si>
+  <si>
+    <t>isc07-08@gmail.com</t>
+  </si>
+  <si>
+    <t>isc07-09@gmail.com</t>
+  </si>
+  <si>
+    <t>isc07-10@gmail.com</t>
+  </si>
+  <si>
+    <t>isc07-11@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1012,200 +1020,201 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F1" sqref="F1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
       <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\DATN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF16608-1C9B-4E9D-B640-AEAF81C96319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDF7139-6DB9-4AEE-BE64-C840FA620D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>NAM</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>isc07-11@gmail.com</t>
+  </si>
+  <si>
+    <t>LECTURER</t>
   </si>
 </sst>
 </file>
@@ -1017,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1033,7 @@
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1046,8 +1049,11 @@
       <c r="E1" t="s">
         <v>21</v>
       </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1063,8 +1069,11 @@
       <c r="E2" t="s">
         <v>21</v>
       </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1081,7 +1090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1098,7 +1107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1115,7 +1124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1132,7 +1141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1149,7 +1158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1166,7 +1175,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1183,7 +1192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1200,7 +1209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\DATN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDF7139-6DB9-4AEE-BE64-C840FA620D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E342E5-B125-4D71-804B-4BB5E6080D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,76 +93,76 @@
     <t xml:space="preserve">TỐNG KHÁNH </t>
   </si>
   <si>
-    <t>ISC07</t>
-  </si>
-  <si>
-    <t>isc07-01</t>
-  </si>
-  <si>
-    <t>isc07-02</t>
-  </si>
-  <si>
-    <t>isc07-03</t>
-  </si>
-  <si>
-    <t>isc07-04</t>
-  </si>
-  <si>
-    <t>isc07-05</t>
-  </si>
-  <si>
-    <t>isc07-06</t>
-  </si>
-  <si>
-    <t>isc07-07</t>
-  </si>
-  <si>
-    <t>isc07-08</t>
-  </si>
-  <si>
-    <t>isc07-09</t>
-  </si>
-  <si>
-    <t>isc07-10</t>
-  </si>
-  <si>
-    <t>isc07-11</t>
-  </si>
-  <si>
-    <t>isc07-01@gmail.com</t>
-  </si>
-  <si>
-    <t>isc07-02@gmail.com</t>
-  </si>
-  <si>
-    <t>isc07-03@gmail.com</t>
-  </si>
-  <si>
-    <t>isc07-04@gmail.com</t>
-  </si>
-  <si>
-    <t>isc07-05@gmail.com</t>
-  </si>
-  <si>
-    <t>isc07-06@gmail.com</t>
-  </si>
-  <si>
-    <t>isc07-07@gmail.com</t>
-  </si>
-  <si>
-    <t>isc07-08@gmail.com</t>
-  </si>
-  <si>
-    <t>isc07-09@gmail.com</t>
-  </si>
-  <si>
-    <t>isc07-10@gmail.com</t>
-  </si>
-  <si>
-    <t>isc07-11@gmail.com</t>
-  </si>
-  <si>
     <t>LECTURER</t>
+  </si>
+  <si>
+    <t>ISC09</t>
+  </si>
+  <si>
+    <t>isc09-01</t>
+  </si>
+  <si>
+    <t>isc09-02</t>
+  </si>
+  <si>
+    <t>isc09-03</t>
+  </si>
+  <si>
+    <t>isc09-04</t>
+  </si>
+  <si>
+    <t>isc09-05</t>
+  </si>
+  <si>
+    <t>isc09-06</t>
+  </si>
+  <si>
+    <t>isc09-07</t>
+  </si>
+  <si>
+    <t>isc09-08</t>
+  </si>
+  <si>
+    <t>isc09-09</t>
+  </si>
+  <si>
+    <t>isc09-10</t>
+  </si>
+  <si>
+    <t>isc09-11</t>
+  </si>
+  <si>
+    <t>isc09-01@gmail.com</t>
+  </si>
+  <si>
+    <t>isc09-02@gmail.com</t>
+  </si>
+  <si>
+    <t>isc09-03@gmail.com</t>
+  </si>
+  <si>
+    <t>isc09-04@gmail.com</t>
+  </si>
+  <si>
+    <t>isc09-05@gmail.com</t>
+  </si>
+  <si>
+    <t>isc09-06@gmail.com</t>
+  </si>
+  <si>
+    <t>isc09-07@gmail.com</t>
+  </si>
+  <si>
+    <t>isc09-08@gmail.com</t>
+  </si>
+  <si>
+    <t>isc09-09@gmail.com</t>
+  </si>
+  <si>
+    <t>isc09-10@gmail.com</t>
+  </si>
+  <si>
+    <t>isc09-11@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,10 +1035,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1047,18 +1047,18 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1067,18 +1067,18 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1087,15 +1087,15 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1104,15 +1104,15 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1121,15 +1121,15 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1138,15 +1138,15 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1155,15 +1155,15 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1172,15 +1172,15 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1189,15 +1189,15 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1206,15 +1206,15 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1223,7 +1223,7 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
